--- a/Running Dinner dataset 2022.xlsx
+++ b/Running Dinner dataset 2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\884570\OneDrive - Office 365 Fontys\Documenten\Vakken voorbereiding 2022-2023\OR5\Data 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/433534_student_fontys_nl/Documents/Documenten/Operations Research/OR5/RunningDinnerV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_61928EF72D01CF83C1BFB26884384AB9FE75FF58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E95B095-950B-43CC-A878-1B4B11D502CE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" tabRatio="899" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewoners" sheetId="1" r:id="rId1"/>
@@ -811,8 +812,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -873,6 +874,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -921,7 +929,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -933,22 +941,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Hyperlink 2" xfId="7"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Note 2" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Note 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="4"/>
+    <cellStyle name="Standaard 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1225,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2545,10 +2559,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3443,7 +3457,7 @@
       <c r="D60" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition ref="A2:A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3451,11 +3465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3464,8 +3478,8 @@
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3477,11 +3491,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3499,7 +3513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4190,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,7 +4900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
